--- a/Switches/USB Hub Switch/Electronics/PickAndPlace_USBHubSmartSwitchV300.xlsx
+++ b/Switches/USB Hub Switch/Electronics/PickAndPlace_USBHubSmartSwitchV300.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="383">
   <si>
     <t>Designator</t>
   </si>
@@ -694,466 +694,472 @@
     <t>R11</t>
   </si>
   <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>73.406mm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>55.4mm</t>
+  </si>
+  <si>
+    <t>25.397mm</t>
+  </si>
+  <si>
+    <t>26.397mm</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>109.728mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SL2.1A</t>
+  </si>
+  <si>
+    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>85.598mm</t>
+  </si>
+  <si>
+    <t>41.148mm</t>
+  </si>
+  <si>
+    <t>81.153mm</t>
+  </si>
+  <si>
+    <t>38.276mm</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>MX66100T</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.9-BL</t>
+  </si>
+  <si>
+    <t>103.003mm</t>
+  </si>
+  <si>
+    <t>51.374mm</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>CH217K</t>
+  </si>
+  <si>
+    <t>101.6mm</t>
+  </si>
+  <si>
+    <t>61.976mm</t>
+  </si>
+  <si>
+    <t>102.749mm</t>
+  </si>
+  <si>
+    <t>61.026mm</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>50.921mm</t>
+  </si>
+  <si>
+    <t>31.684mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>68.955mm</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>88.521mm</t>
+  </si>
+  <si>
+    <t>30.786mm</t>
+  </si>
+  <si>
+    <t>87.372mm</t>
+  </si>
+  <si>
+    <t>31.736mm</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>105.404mm</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>DIO32220MP10</t>
+  </si>
+  <si>
+    <t>MSOP-10_L3.0-W3.0-P0.50-LS5.0-BL</t>
+  </si>
+  <si>
+    <t>63.5mm</t>
+  </si>
+  <si>
+    <t>32.512mm</t>
+  </si>
+  <si>
+    <t>62.5mm</t>
+  </si>
+  <si>
+    <t>30.402mm</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>81.026mm</t>
+  </si>
+  <si>
+    <t>80.026mm</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>97.806mm</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>110.353mm</t>
+  </si>
+  <si>
+    <t>36.639mm</t>
+  </si>
+  <si>
+    <t>112.463mm</t>
+  </si>
+  <si>
+    <t>35.639mm</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>STM8S003F3P6TR</t>
+  </si>
+  <si>
+    <t>TSSOP-20_L6.5-W4.4-P0.65-LS6.4-BL</t>
+  </si>
+  <si>
+    <t>74.168mm</t>
+  </si>
+  <si>
+    <t>45.72mm</t>
+  </si>
+  <si>
+    <t>71.243mm</t>
+  </si>
+  <si>
+    <t>42.849mm</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>74HC595D,118</t>
+  </si>
+  <si>
+    <t>SOIC-16_L9.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>64.77mm</t>
+  </si>
+  <si>
+    <t>60.325mm</t>
+  </si>
+  <si>
+    <t>42.984mm</t>
+  </si>
+  <si>
+    <t>CN3</t>
+  </si>
+  <si>
+    <t>902-131A1011D10100</t>
+  </si>
+  <si>
+    <t>USB-A-TH__USB-AF-90</t>
+  </si>
+  <si>
+    <t>68.961mm</t>
+  </si>
+  <si>
+    <t>17.272mm</t>
+  </si>
+  <si>
+    <t>65.461mm</t>
+  </si>
+  <si>
+    <t>18.627mm</t>
+  </si>
+  <si>
+    <t>CN4</t>
+  </si>
+  <si>
+    <t>86.995mm</t>
+  </si>
+  <si>
+    <t>83.495mm</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>105.029mm</t>
+  </si>
+  <si>
+    <t>101.529mm</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>50.927mm</t>
+  </si>
+  <si>
+    <t>47.427mm</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X322512MSB4SI</t>
+  </si>
+  <si>
+    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
+  </si>
+  <si>
+    <t>81.28mm</t>
+  </si>
+  <si>
+    <t>47.498mm</t>
+  </si>
+  <si>
+    <t>82.38mm</t>
+  </si>
+  <si>
+    <t>48.373mm</t>
+  </si>
+  <si>
+    <t>12MHz</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>43.434mm</t>
+  </si>
+  <si>
+    <t>54.61mm</t>
+  </si>
+  <si>
+    <t>44.187mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>46.99mm</t>
+  </si>
+  <si>
+    <t>47.743mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DS18B20Z</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>55.626mm</t>
+  </si>
+  <si>
+    <t>52.944mm</t>
+  </si>
+  <si>
+    <t>46.101mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>TZ-LAMP05RB4HD-C</t>
+  </si>
+  <si>
+    <t>LED-TH_3P-BD5.8-P2.54-R-BI</t>
+  </si>
+  <si>
+    <t>27.94mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>68.834mm</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>87.122mm</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>105.156mm</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>HC-TYPE-C-16P-067A</t>
+  </si>
+  <si>
+    <t>USB-SMD_HC-TYPE-C-16P-FLS7.2-5A-11</t>
+  </si>
+  <si>
+    <t>93.726mm</t>
+  </si>
+  <si>
+    <t>95.756mm</t>
+  </si>
+  <si>
+    <t>56.386mm</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>44.704mm</t>
+  </si>
+  <si>
+    <t>45.404mm</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>94.107mm</t>
+  </si>
+  <si>
+    <t>92.958mm</t>
+  </si>
+  <si>
+    <t>52.258mm</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>80.518mm</t>
+  </si>
+  <si>
+    <t>82.111mm</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>68.072mm</t>
+  </si>
+  <si>
+    <t>39.624mm</t>
+  </si>
+  <si>
+    <t>40.377mm</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>69.85mm</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>71.571mm</t>
+  </si>
+  <si>
+    <t>39.643mm</t>
+  </si>
+  <si>
+    <t>40.396mm</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>69.841mm</t>
+  </si>
+  <si>
     <t>R37</t>
   </si>
   <si>
-    <t>65.278mm</t>
-  </si>
-  <si>
-    <t>38.862mm</t>
-  </si>
-  <si>
-    <t>66.031mm</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>73.406mm</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>55.4mm</t>
-  </si>
-  <si>
-    <t>25.397mm</t>
-  </si>
-  <si>
-    <t>26.397mm</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>109.728mm</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SL2.1A</t>
-  </si>
-  <si>
-    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>85.598mm</t>
-  </si>
-  <si>
-    <t>41.148mm</t>
-  </si>
-  <si>
-    <t>81.153mm</t>
-  </si>
-  <si>
-    <t>38.276mm</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MX66100T</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.9-BL</t>
-  </si>
-  <si>
-    <t>103.003mm</t>
-  </si>
-  <si>
-    <t>51.374mm</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>CH217K</t>
-  </si>
-  <si>
-    <t>101.6mm</t>
-  </si>
-  <si>
-    <t>61.976mm</t>
-  </si>
-  <si>
-    <t>102.749mm</t>
-  </si>
-  <si>
-    <t>61.026mm</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>50.921mm</t>
-  </si>
-  <si>
-    <t>31.684mm</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>68.955mm</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>88.521mm</t>
-  </si>
-  <si>
-    <t>30.786mm</t>
-  </si>
-  <si>
-    <t>87.372mm</t>
-  </si>
-  <si>
-    <t>31.736mm</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>105.404mm</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>DIO32220MP10</t>
-  </si>
-  <si>
-    <t>MSOP-10_L3.0-W3.0-P0.50-LS5.0-BL</t>
-  </si>
-  <si>
-    <t>63.5mm</t>
-  </si>
-  <si>
-    <t>32.512mm</t>
-  </si>
-  <si>
-    <t>62.5mm</t>
-  </si>
-  <si>
-    <t>30.402mm</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>81.026mm</t>
-  </si>
-  <si>
-    <t>80.026mm</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>97.806mm</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>110.353mm</t>
-  </si>
-  <si>
-    <t>36.639mm</t>
-  </si>
-  <si>
-    <t>112.463mm</t>
-  </si>
-  <si>
-    <t>35.639mm</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>STM8S003F3P6TR</t>
-  </si>
-  <si>
-    <t>TSSOP-20_L6.5-W4.4-P0.65-LS6.4-BL</t>
-  </si>
-  <si>
-    <t>74.168mm</t>
-  </si>
-  <si>
-    <t>45.72mm</t>
-  </si>
-  <si>
-    <t>71.243mm</t>
-  </si>
-  <si>
-    <t>42.849mm</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>74HC595D,118</t>
-  </si>
-  <si>
-    <t>SOIC-16_L9.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>64.77mm</t>
-  </si>
-  <si>
-    <t>60.325mm</t>
-  </si>
-  <si>
-    <t>42.984mm</t>
-  </si>
-  <si>
-    <t>CN3</t>
-  </si>
-  <si>
-    <t>902-131A1011D10100</t>
-  </si>
-  <si>
-    <t>USB-A-TH__USB-AF-90</t>
-  </si>
-  <si>
-    <t>68.961mm</t>
-  </si>
-  <si>
-    <t>17.272mm</t>
-  </si>
-  <si>
-    <t>65.461mm</t>
-  </si>
-  <si>
-    <t>18.627mm</t>
-  </si>
-  <si>
-    <t>CN4</t>
-  </si>
-  <si>
-    <t>86.995mm</t>
-  </si>
-  <si>
-    <t>83.495mm</t>
-  </si>
-  <si>
-    <t>CN5</t>
-  </si>
-  <si>
-    <t>105.029mm</t>
-  </si>
-  <si>
-    <t>101.529mm</t>
-  </si>
-  <si>
-    <t>CN6</t>
-  </si>
-  <si>
-    <t>50.927mm</t>
-  </si>
-  <si>
-    <t>47.427mm</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X322512MSB4SI</t>
-  </si>
-  <si>
-    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
-  </si>
-  <si>
-    <t>81.28mm</t>
-  </si>
-  <si>
-    <t>47.498mm</t>
-  </si>
-  <si>
-    <t>82.38mm</t>
-  </si>
-  <si>
-    <t>48.373mm</t>
-  </si>
-  <si>
-    <t>12MHz</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>43.434mm</t>
-  </si>
-  <si>
-    <t>54.61mm</t>
-  </si>
-  <si>
-    <t>44.187mm</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>46.99mm</t>
-  </si>
-  <si>
-    <t>47.743mm</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>DS18B20Z</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>55.626mm</t>
-  </si>
-  <si>
-    <t>52.944mm</t>
-  </si>
-  <si>
-    <t>46.101mm</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>TZ-LAMP05RB4HD-C</t>
-  </si>
-  <si>
-    <t>LED-TH_3P-BD5.8-P2.54-R-BI</t>
-  </si>
-  <si>
-    <t>27.94mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>68.834mm</t>
-  </si>
-  <si>
-    <t>LED3</t>
-  </si>
-  <si>
-    <t>87.122mm</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>105.156mm</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>HC-TYPE-C-16P-067A</t>
-  </si>
-  <si>
-    <t>USB-SMD_HC-TYPE-C-16P-FLS7.2-5A-11</t>
-  </si>
-  <si>
-    <t>93.726mm</t>
-  </si>
-  <si>
-    <t>95.756mm</t>
-  </si>
-  <si>
-    <t>56.386mm</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>44.704mm</t>
-  </si>
-  <si>
-    <t>45.404mm</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>94.107mm</t>
-  </si>
-  <si>
-    <t>92.958mm</t>
-  </si>
-  <si>
-    <t>52.258mm</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>80.518mm</t>
-  </si>
-  <si>
-    <t>82.111mm</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>68.072mm</t>
-  </si>
-  <si>
-    <t>39.624mm</t>
-  </si>
-  <si>
-    <t>40.377mm</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>69.85mm</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>71.571mm</t>
-  </si>
-  <si>
-    <t>39.643mm</t>
-  </si>
-  <si>
-    <t>40.396mm</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>69.841mm</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SS12D07VG4_C22435633</t>
-  </si>
-  <si>
-    <t>SW-TH_SS12D07VG4</t>
-  </si>
-  <si>
-    <t>55.88mm</t>
-  </si>
-  <si>
-    <t>38.354mm</t>
-  </si>
-  <si>
-    <t>53.88mm</t>
-  </si>
-  <si>
-    <t>SS12D07VG4</t>
+    <t>0805W8F0000T5E_C17477</t>
+  </si>
+  <si>
+    <t>62.049mm</t>
+  </si>
+  <si>
+    <t>39.864mm</t>
+  </si>
+  <si>
+    <t>61.049mm</t>
+  </si>
+  <si>
+    <t>0Ω</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>62.103mm</t>
+  </si>
+  <si>
+    <t>37.719mm</t>
+  </si>
+  <si>
+    <t>61.103mm</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>59.944mm</t>
+  </si>
+  <si>
+    <t>58.944mm</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -4599,28 +4605,28 @@
         <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
         <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
         <v>228</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="H66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I66" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -4629,13 +4635,13 @@
         <v>21</v>
       </c>
       <c r="L66">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
       </c>
       <c r="N66" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
@@ -4643,7 +4649,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
         <v>156</v>
@@ -4652,22 +4658,22 @@
         <v>157</v>
       </c>
       <c r="D67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" t="s">
         <v>232</v>
-      </c>
-      <c r="E67" t="s">
-        <v>159</v>
-      </c>
-      <c r="F67" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" t="s">
-        <v>159</v>
-      </c>
-      <c r="H67" t="s">
-        <v>232</v>
-      </c>
-      <c r="I67" t="s">
-        <v>160</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -4702,19 +4708,19 @@
         <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
         <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="H68" t="s">
         <v>234</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -4737,46 +4743,46 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" t="s">
         <v>237</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" t="s">
-        <v>157</v>
       </c>
       <c r="D69" t="s">
         <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F69" t="s">
         <v>238</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K69" t="s">
         <v>21</v>
       </c>
       <c r="L69">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M69" t="s">
         <v>22</v>
       </c>
       <c r="N69" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
@@ -4784,46 +4790,46 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>245</v>
+      </c>
+      <c r="I70" t="s">
+        <v>246</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70">
+        <v>90</v>
+      </c>
+      <c r="M70" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" t="s">
         <v>243</v>
-      </c>
-      <c r="F70" t="s">
-        <v>242</v>
-      </c>
-      <c r="G70" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" t="s">
-        <v>244</v>
-      </c>
-      <c r="I70" t="s">
-        <v>245</v>
-      </c>
-      <c r="J70">
-        <v>16</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70" t="s">
-        <v>240</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
@@ -4831,31 +4837,31 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J71">
         <v>6</v>
@@ -4870,7 +4876,7 @@
         <v>22</v>
       </c>
       <c r="N71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O71" t="s">
         <v>24</v>
@@ -4878,31 +4884,31 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
         <v>254</v>
       </c>
-      <c r="F72" t="s">
-        <v>253</v>
-      </c>
-      <c r="G72" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>255</v>
-      </c>
-      <c r="I72" t="s">
-        <v>256</v>
       </c>
       <c r="J72">
         <v>6</v>
@@ -4911,13 +4917,13 @@
         <v>21</v>
       </c>
       <c r="L72">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M72" t="s">
         <v>22</v>
       </c>
       <c r="N72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O72" t="s">
         <v>24</v>
@@ -4925,31 +4931,31 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
         <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -4964,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="N73" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O73" t="s">
         <v>24</v>
@@ -4972,31 +4978,31 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
         <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="H74" t="s">
         <v>261</v>
       </c>
       <c r="I74" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J74">
         <v>6</v>
@@ -5011,7 +5017,7 @@
         <v>22</v>
       </c>
       <c r="N74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O74" t="s">
         <v>24</v>
@@ -5019,31 +5025,31 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
         <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
         <v>264</v>
       </c>
-      <c r="F75" t="s">
-        <v>263</v>
-      </c>
-      <c r="G75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H75" t="s">
-        <v>265</v>
-      </c>
       <c r="I75" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J75">
         <v>6</v>
@@ -5058,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O75" t="s">
         <v>24</v>
@@ -5066,46 +5072,46 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
         <v>267</v>
       </c>
-      <c r="B76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="H76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="J76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="L76">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>22</v>
       </c>
       <c r="N76" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O76" t="s">
         <v>24</v>
@@ -5113,31 +5119,31 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s">
         <v>269</v>
       </c>
-      <c r="B77" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" t="s">
-        <v>272</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>273</v>
       </c>
-      <c r="F77" t="s">
-        <v>272</v>
-      </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H77" t="s">
         <v>274</v>
       </c>
       <c r="I77" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J77">
         <v>10</v>
@@ -5152,7 +5158,7 @@
         <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O77" t="s">
         <v>24</v>
@@ -5160,31 +5166,31 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" t="s">
         <v>276</v>
       </c>
-      <c r="B78" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="I78" t="s">
         <v>271</v>
-      </c>
-      <c r="D78" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="F78" t="s">
-        <v>277</v>
-      </c>
-      <c r="G78" t="s">
-        <v>273</v>
-      </c>
-      <c r="H78" t="s">
-        <v>278</v>
-      </c>
-      <c r="I78" t="s">
-        <v>275</v>
       </c>
       <c r="J78">
         <v>10</v>
@@ -5199,7 +5205,7 @@
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
@@ -5207,31 +5213,31 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
         <v>279</v>
       </c>
-      <c r="B79" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" t="s">
-        <v>271</v>
-      </c>
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" t="s">
-        <v>273</v>
-      </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="G79" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H79" t="s">
         <v>280</v>
       </c>
       <c r="I79" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J79">
         <v>10</v>
@@ -5240,13 +5246,13 @@
         <v>21</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
@@ -5254,46 +5260,46 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E80" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" t="s">
+        <v>285</v>
+      </c>
+      <c r="G80" t="s">
+        <v>286</v>
+      </c>
+      <c r="H80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" t="s">
+        <v>288</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" t="s">
         <v>283</v>
-      </c>
-      <c r="F80" t="s">
-        <v>282</v>
-      </c>
-      <c r="G80" t="s">
-        <v>283</v>
-      </c>
-      <c r="H80" t="s">
-        <v>284</v>
-      </c>
-      <c r="I80" t="s">
-        <v>285</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L80">
-        <v>90</v>
-      </c>
-      <c r="M80" t="s">
-        <v>22</v>
-      </c>
-      <c r="N80" t="s">
-        <v>270</v>
       </c>
       <c r="O80" t="s">
         <v>24</v>
@@ -5301,34 +5307,34 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" t="s">
         <v>286</v>
       </c>
-      <c r="B81" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" t="s">
-        <v>290</v>
-      </c>
       <c r="F81" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G81" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H81" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I81" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -5340,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="N81" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O81" t="s">
         <v>24</v>
@@ -5348,34 +5354,34 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G82" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I82" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J82">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
@@ -5384,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="N82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O82" t="s">
         <v>24</v>
@@ -5395,31 +5401,31 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" t="s">
         <v>299</v>
       </c>
-      <c r="B83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" t="s">
-        <v>301</v>
-      </c>
-      <c r="D83" t="s">
-        <v>302</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>303</v>
       </c>
-      <c r="F83" t="s">
-        <v>302</v>
-      </c>
       <c r="G83" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H83" t="s">
         <v>304</v>
       </c>
       <c r="I83" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J83">
         <v>6</v>
@@ -5434,7 +5440,7 @@
         <v>154</v>
       </c>
       <c r="N83" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O83" t="s">
         <v>24</v>
@@ -5442,31 +5448,31 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" t="s">
         <v>306</v>
       </c>
-      <c r="B84" t="s">
-        <v>300</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" t="s">
+        <v>306</v>
+      </c>
+      <c r="G84" t="s">
+        <v>299</v>
+      </c>
+      <c r="H84" t="s">
+        <v>307</v>
+      </c>
+      <c r="I84" t="s">
         <v>301</v>
-      </c>
-      <c r="D84" t="s">
-        <v>307</v>
-      </c>
-      <c r="E84" t="s">
-        <v>303</v>
-      </c>
-      <c r="F84" t="s">
-        <v>307</v>
-      </c>
-      <c r="G84" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" t="s">
-        <v>308</v>
-      </c>
-      <c r="I84" t="s">
-        <v>305</v>
       </c>
       <c r="J84">
         <v>6</v>
@@ -5481,7 +5487,7 @@
         <v>154</v>
       </c>
       <c r="N84" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O84" t="s">
         <v>24</v>
@@ -5489,31 +5495,31 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" t="s">
         <v>309</v>
       </c>
-      <c r="B85" t="s">
-        <v>300</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" t="s">
+        <v>299</v>
+      </c>
+      <c r="H85" t="s">
+        <v>310</v>
+      </c>
+      <c r="I85" t="s">
         <v>301</v>
-      </c>
-      <c r="D85" t="s">
-        <v>310</v>
-      </c>
-      <c r="E85" t="s">
-        <v>303</v>
-      </c>
-      <c r="F85" t="s">
-        <v>310</v>
-      </c>
-      <c r="G85" t="s">
-        <v>303</v>
-      </c>
-      <c r="H85" t="s">
-        <v>311</v>
-      </c>
-      <c r="I85" t="s">
-        <v>305</v>
       </c>
       <c r="J85">
         <v>6</v>
@@ -5528,7 +5534,7 @@
         <v>154</v>
       </c>
       <c r="N85" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
@@ -5536,46 +5542,46 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" t="s">
         <v>312</v>
       </c>
-      <c r="B86" t="s">
-        <v>300</v>
-      </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G86" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H86" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="J86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M86" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
@@ -5583,34 +5589,34 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F87" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G87" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H87" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I87" t="s">
         <v>321</v>
       </c>
       <c r="J87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
@@ -5622,7 +5628,7 @@
         <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="O87" t="s">
         <v>24</v>
@@ -5633,7 +5639,7 @@
         <v>323</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
         <v>164</v>
@@ -5642,19 +5648,19 @@
         <v>324</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F88" t="s">
         <v>324</v>
       </c>
       <c r="G88" t="s">
+        <v>321</v>
+      </c>
+      <c r="H88" t="s">
         <v>325</v>
       </c>
-      <c r="H88" t="s">
-        <v>326</v>
-      </c>
       <c r="I88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J88">
         <v>2</v>
@@ -5669,7 +5675,7 @@
         <v>22</v>
       </c>
       <c r="N88" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
@@ -5677,46 +5683,46 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B89" t="s">
         <v>327</v>
       </c>
-      <c r="B89" t="s">
-        <v>178</v>
-      </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="D89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="F89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="H89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I89" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="L89">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M89" t="s">
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
@@ -5724,46 +5730,46 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="H90" t="s">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="I90" t="s">
         <v>335</v>
       </c>
       <c r="J90">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
       </c>
       <c r="L90">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="N90" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
@@ -5774,28 +5780,28 @@
         <v>336</v>
       </c>
       <c r="B91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" t="s">
         <v>337</v>
-      </c>
-      <c r="C91" t="s">
-        <v>338</v>
-      </c>
-      <c r="D91" t="s">
-        <v>113</v>
       </c>
       <c r="E91" t="s">
         <v>159</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="G91" t="s">
         <v>159</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="I91" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -5810,7 +5816,7 @@
         <v>154</v>
       </c>
       <c r="N91" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
@@ -5818,31 +5824,31 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E92" t="s">
         <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G92" t="s">
         <v>159</v>
       </c>
       <c r="H92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I92" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -5857,7 +5863,7 @@
         <v>154</v>
       </c>
       <c r="N92" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O92" t="s">
         <v>24</v>
@@ -5865,31 +5871,31 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E93" t="s">
         <v>159</v>
       </c>
       <c r="F93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
       </c>
       <c r="H93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I93" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J93">
         <v>3</v>
@@ -5904,7 +5910,7 @@
         <v>154</v>
       </c>
       <c r="N93" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O93" t="s">
         <v>24</v>
@@ -5912,46 +5918,46 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" t="s">
         <v>344</v>
-      </c>
-      <c r="B94" t="s">
-        <v>337</v>
-      </c>
-      <c r="C94" t="s">
-        <v>338</v>
       </c>
       <c r="D94" t="s">
         <v>345</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F94" t="s">
         <v>345</v>
       </c>
       <c r="G94" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I94" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
       </c>
       <c r="L94">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M94" t="s">
         <v>154</v>
       </c>
       <c r="N94" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="O94" t="s">
         <v>24</v>
@@ -5959,46 +5965,46 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
         <v>349</v>
       </c>
-      <c r="E95" t="s">
-        <v>200</v>
-      </c>
       <c r="F95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" t="s">
         <v>349</v>
       </c>
-      <c r="G95" t="s">
-        <v>200</v>
-      </c>
       <c r="H95" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" t="s">
         <v>350</v>
       </c>
-      <c r="I95" t="s">
-        <v>351</v>
-      </c>
       <c r="J95">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M95" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N95" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
@@ -6006,34 +6012,34 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
         <v>352</v>
       </c>
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="s">
-        <v>113</v>
-      </c>
       <c r="E96" t="s">
+        <v>173</v>
+      </c>
+      <c r="F96" t="s">
+        <v>352</v>
+      </c>
+      <c r="G96" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" t="s">
         <v>353</v>
-      </c>
-      <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>353</v>
-      </c>
-      <c r="H96" t="s">
-        <v>113</v>
       </c>
       <c r="I96" t="s">
         <v>354</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
@@ -6045,7 +6051,7 @@
         <v>22</v>
       </c>
       <c r="N96" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
@@ -6056,43 +6062,43 @@
         <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
         <v>356</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
         <v>356</v>
       </c>
       <c r="G97" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="H97" t="s">
         <v>357</v>
       </c>
       <c r="I97" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="J97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="L97">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M97" t="s">
         <v>22</v>
       </c>
       <c r="N97" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="O97" t="s">
         <v>24</v>
@@ -6100,32 +6106,32 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>358</v>
+      </c>
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" t="s">
         <v>359</v>
       </c>
-      <c r="B98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>360</v>
       </c>
-      <c r="E98" t="s">
-        <v>113</v>
-      </c>
       <c r="F98" t="s">
+        <v>359</v>
+      </c>
+      <c r="G98" t="s">
         <v>360</v>
       </c>
-      <c r="G98" t="s">
-        <v>113</v>
-      </c>
       <c r="H98" t="s">
+        <v>359</v>
+      </c>
+      <c r="I98" t="s">
         <v>361</v>
       </c>
-      <c r="I98" t="s">
-        <v>113</v>
-      </c>
       <c r="J98">
         <v>2</v>
       </c>
@@ -6133,13 +6139,13 @@
         <v>21</v>
       </c>
       <c r="L98">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M98" t="s">
         <v>22</v>
       </c>
       <c r="N98" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="O98" t="s">
         <v>24</v>
@@ -6159,19 +6165,19 @@
         <v>363</v>
       </c>
       <c r="E99" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F99" t="s">
         <v>363</v>
       </c>
       <c r="G99" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H99" t="s">
         <v>363</v>
       </c>
       <c r="I99" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -6194,7 +6200,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
         <v>163</v>
@@ -6203,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="D100" t="s">
+        <v>365</v>
+      </c>
+      <c r="E100" t="s">
+        <v>366</v>
+      </c>
+      <c r="F100" t="s">
+        <v>365</v>
+      </c>
+      <c r="G100" t="s">
+        <v>366</v>
+      </c>
+      <c r="H100" t="s">
+        <v>365</v>
+      </c>
+      <c r="I100" t="s">
         <v>367</v>
-      </c>
-      <c r="E100" t="s">
-        <v>364</v>
-      </c>
-      <c r="F100" t="s">
-        <v>367</v>
-      </c>
-      <c r="G100" t="s">
-        <v>364</v>
-      </c>
-      <c r="H100" t="s">
-        <v>367</v>
-      </c>
-      <c r="I100" t="s">
-        <v>365</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -6250,22 +6256,22 @@
         <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="F101" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="H101" t="s">
         <v>369</v>
       </c>
       <c r="I101" t="s">
-        <v>371</v>
+        <v>166</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -6274,7 +6280,7 @@
         <v>21</v>
       </c>
       <c r="L101">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
@@ -6288,32 +6294,32 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" t="s">
+        <v>371</v>
+      </c>
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" t="s">
         <v>372</v>
       </c>
-      <c r="B102" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" t="s">
-        <v>150</v>
-      </c>
       <c r="E102" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="F102" t="s">
-        <v>150</v>
+        <v>372</v>
       </c>
       <c r="G102" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="H102" t="s">
+        <v>374</v>
+      </c>
+      <c r="I102" t="s">
         <v>373</v>
       </c>
-      <c r="I102" t="s">
-        <v>166</v>
-      </c>
       <c r="J102">
         <v>2</v>
       </c>
@@ -6321,13 +6327,13 @@
         <v>21</v>
       </c>
       <c r="L102">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M102" t="s">
         <v>22</v>
       </c>
       <c r="N102" t="s">
-        <v>168</v>
+        <v>375</v>
       </c>
       <c r="O102" t="s">
         <v>24</v>
@@ -6335,13 +6341,13 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C103" t="s">
-        <v>376</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
         <v>377</v>
@@ -6362,7 +6368,7 @@
         <v>378</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
         <v>21</v>
@@ -6371,12 +6377,59 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N103" t="s">
+        <v>375</v>
+      </c>
+      <c r="O103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>380</v>
       </c>
-      <c r="O103" t="s">
+      <c r="B104" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>381</v>
+      </c>
+      <c r="F104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" t="s">
+        <v>381</v>
+      </c>
+      <c r="H104" t="s">
+        <v>166</v>
+      </c>
+      <c r="I104" t="s">
+        <v>382</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
+      <c r="L104">
+        <v>90</v>
+      </c>
+      <c r="M104" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" t="s">
+        <v>375</v>
+      </c>
+      <c r="O104" t="s">
         <v>24</v>
       </c>
     </row>
